--- a/711_distance.xlsx
+++ b/711_distance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujhejia/Library/CloudStorage/GoogleDrive-qqaazz800624@gmail.com/我的雲端硬碟/臺大資料科學博士班/資料科學計算/作業/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A1327-6488-C448-95A3-7E866783418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C948795-71D2-0345-8CAC-182E463F0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33320" yWindow="1900" windowWidth="30580" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -643,94 +643,94 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0.76600000000000001</v>
+        <v>555</v>
       </c>
       <c r="D2" s="1">
-        <v>0.79100000000000004</v>
+        <v>540</v>
       </c>
       <c r="E2" s="1">
-        <v>3.1669999999999998</v>
+        <v>3172</v>
       </c>
       <c r="F2" s="1">
-        <v>4.8289999999999997</v>
+        <v>4546</v>
       </c>
       <c r="G2" s="1">
-        <v>3.8919999999999999</v>
+        <v>3848</v>
       </c>
       <c r="H2" s="1">
-        <v>3.4910000000000001</v>
+        <v>3394</v>
       </c>
       <c r="I2" s="1">
-        <v>6.3310000000000004</v>
+        <v>4771</v>
       </c>
       <c r="J2" s="1">
-        <v>8.0310000000000006</v>
+        <v>6307</v>
       </c>
       <c r="K2" s="1">
-        <v>5.8970000000000002</v>
+        <v>5363</v>
       </c>
       <c r="L2" s="1">
-        <v>5.367</v>
+        <v>4941</v>
       </c>
       <c r="M2" s="1">
-        <v>4.5010000000000003</v>
+        <v>3603</v>
       </c>
       <c r="N2" s="1">
-        <v>10.587</v>
+        <v>10421</v>
       </c>
       <c r="O2" s="1">
-        <v>13.548</v>
+        <v>10216</v>
       </c>
       <c r="P2" s="1">
-        <v>6.6059999999999999</v>
+        <v>5026</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.64</v>
+        <v>9475</v>
       </c>
       <c r="R2" s="1">
-        <v>2.9910000000000001</v>
+        <v>3003</v>
       </c>
       <c r="S2" s="1">
-        <v>4.05</v>
+        <v>3692</v>
       </c>
       <c r="T2" s="1">
-        <v>3.9830000000000001</v>
+        <v>3803</v>
       </c>
       <c r="U2" s="1">
-        <v>9.0090000000000003</v>
+        <v>10352</v>
       </c>
       <c r="V2" s="1">
-        <v>9.375</v>
+        <v>7565</v>
       </c>
       <c r="W2" s="1">
-        <v>8.7469999999999999</v>
+        <v>7172</v>
       </c>
       <c r="X2" s="1">
-        <v>4.843</v>
+        <v>4991</v>
       </c>
       <c r="Y2" s="1">
-        <v>6.8170000000000002</v>
+        <v>6998</v>
       </c>
       <c r="Z2" s="1">
-        <v>4.5019999999999998</v>
+        <v>5014</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.7110000000000003</v>
+        <v>9617</v>
       </c>
       <c r="AB2" s="1">
-        <v>9.3650000000000002</v>
+        <v>9392</v>
       </c>
       <c r="AC2" s="1">
-        <v>7.2009999999999996</v>
+        <v>7953</v>
       </c>
       <c r="AD2" s="1">
-        <v>8.5129999999999999</v>
+        <v>7945</v>
       </c>
       <c r="AE2" s="1">
-        <v>7.827</v>
+        <v>7511</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.6389999999999993</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -738,97 +738,97 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.55100000000000005</v>
+        <v>750</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.255</v>
+        <v>339</v>
       </c>
       <c r="E3" s="1">
-        <v>2.5369999999999999</v>
+        <v>2612</v>
       </c>
       <c r="F3" s="1">
-        <v>4.1989999999999998</v>
+        <v>3473</v>
       </c>
       <c r="G3" s="1">
-        <v>3.2610000000000001</v>
+        <v>3288</v>
       </c>
       <c r="H3" s="1">
-        <v>2.86</v>
+        <v>2833</v>
       </c>
       <c r="I3" s="1">
-        <v>5.4240000000000004</v>
+        <v>4211</v>
       </c>
       <c r="J3" s="1">
-        <v>7.1239999999999997</v>
+        <v>6100</v>
       </c>
       <c r="K3" s="1">
-        <v>5.2830000000000004</v>
+        <v>4803</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
+        <v>4381</v>
       </c>
       <c r="M3" s="1">
-        <v>3.8980000000000001</v>
+        <v>3280</v>
       </c>
       <c r="N3" s="1">
-        <v>8.6769999999999996</v>
+        <v>9861</v>
       </c>
       <c r="O3" s="1">
-        <v>8.6869999999999994</v>
+        <v>9656</v>
       </c>
       <c r="P3" s="1">
-        <v>4.4329999999999998</v>
+        <v>4466</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.73</v>
+        <v>8915</v>
       </c>
       <c r="R3" s="1">
-        <v>2.3879999999999999</v>
+        <v>2443</v>
       </c>
       <c r="S3" s="1">
-        <v>3.4460000000000002</v>
+        <v>3132</v>
       </c>
       <c r="T3" s="1">
-        <v>3.3519999999999999</v>
+        <v>3243</v>
       </c>
       <c r="U3" s="1">
-        <v>8.1080000000000005</v>
+        <v>8084</v>
       </c>
       <c r="V3" s="1">
-        <v>9.0549999999999997</v>
+        <v>7397</v>
       </c>
       <c r="W3" s="1">
-        <v>7.8460000000000001</v>
+        <v>6099</v>
       </c>
       <c r="X3" s="1">
-        <v>4.3369999999999997</v>
+        <v>4822</v>
       </c>
       <c r="Y3" s="1">
-        <v>6.2309999999999999</v>
+        <v>5887</v>
       </c>
       <c r="Z3" s="1">
-        <v>3.8719999999999999</v>
+        <v>3976</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.391</v>
+        <v>9449</v>
       </c>
       <c r="AB3" s="1">
-        <v>9.0449999999999999</v>
+        <v>9223</v>
       </c>
       <c r="AC3" s="1">
-        <v>6.8810000000000002</v>
+        <v>7784</v>
       </c>
       <c r="AD3" s="1">
-        <v>8.1940000000000008</v>
+        <v>7777</v>
       </c>
       <c r="AE3" s="1">
-        <v>7.5069999999999997</v>
+        <v>7343</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.32</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -836,97 +836,97 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.29199999999999998</v>
+        <v>775</v>
       </c>
       <c r="C4" s="1">
-        <v>0.33600000000000002</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>2.9809999999999999</v>
+        <v>2872</v>
       </c>
       <c r="F4" s="1">
-        <v>4.6429999999999998</v>
+        <v>4246</v>
       </c>
       <c r="G4" s="1">
-        <v>3.7050000000000001</v>
+        <v>3548</v>
       </c>
       <c r="H4" s="1">
-        <v>3.3050000000000002</v>
+        <v>3094</v>
       </c>
       <c r="I4" s="1">
-        <v>6.1449999999999996</v>
+        <v>4471</v>
       </c>
       <c r="J4" s="1">
-        <v>7.8449999999999998</v>
+        <v>6007</v>
       </c>
       <c r="K4" s="1">
-        <v>5.7110000000000003</v>
+        <v>5063</v>
       </c>
       <c r="L4" s="1">
-        <v>5.18</v>
+        <v>4641</v>
       </c>
       <c r="M4" s="1">
-        <v>4.3150000000000004</v>
+        <v>3303</v>
       </c>
       <c r="N4" s="1">
-        <v>10.4</v>
+        <v>10121</v>
       </c>
       <c r="O4" s="1">
-        <v>13.361000000000001</v>
+        <v>9916</v>
       </c>
       <c r="P4" s="1">
-        <v>6.4189999999999996</v>
+        <v>4727</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.4529999999999994</v>
+        <v>9175</v>
       </c>
       <c r="R4" s="1">
-        <v>2.8050000000000002</v>
+        <v>2704</v>
       </c>
       <c r="S4" s="1">
-        <v>3.863</v>
+        <v>3392</v>
       </c>
       <c r="T4" s="1">
-        <v>3.7959999999999998</v>
+        <v>3503</v>
       </c>
       <c r="U4" s="1">
-        <v>8.8230000000000004</v>
+        <v>10052</v>
       </c>
       <c r="V4" s="1">
-        <v>9.1880000000000006</v>
+        <v>7265</v>
       </c>
       <c r="W4" s="1">
-        <v>8.56</v>
+        <v>6872</v>
       </c>
       <c r="X4" s="1">
-        <v>4.7539999999999996</v>
+        <v>4691</v>
       </c>
       <c r="Y4" s="1">
-        <v>6.6310000000000002</v>
+        <v>6698</v>
       </c>
       <c r="Z4" s="1">
-        <v>4.3159999999999998</v>
+        <v>4714</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.5250000000000004</v>
+        <v>9317</v>
       </c>
       <c r="AB4" s="1">
-        <v>9.1790000000000003</v>
+        <v>9092</v>
       </c>
       <c r="AC4" s="1">
-        <v>7.0149999999999997</v>
+        <v>7653</v>
       </c>
       <c r="AD4" s="1">
-        <v>8.327</v>
+        <v>7645</v>
       </c>
       <c r="AE4" s="1">
-        <v>7.641</v>
+        <v>7211</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.4529999999999994</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -934,97 +934,97 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3.23</v>
+        <v>3120</v>
       </c>
       <c r="C5" s="1">
-        <v>2.6240000000000001</v>
+        <v>2480</v>
       </c>
       <c r="D5" s="1">
-        <v>2.8839999999999999</v>
+        <v>2953</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1.708</v>
+        <v>1395</v>
       </c>
       <c r="G5" s="1">
-        <v>0.99299999999999999</v>
+        <v>1210</v>
       </c>
       <c r="H5" s="1">
-        <v>0.36799999999999999</v>
+        <v>862</v>
       </c>
       <c r="I5" s="1">
-        <v>3.907</v>
+        <v>3018</v>
       </c>
       <c r="J5" s="1">
-        <v>5.6070000000000002</v>
+        <v>4709</v>
       </c>
       <c r="K5" s="1">
-        <v>3.5630000000000002</v>
+        <v>3610</v>
       </c>
       <c r="L5" s="1">
-        <v>3.2160000000000002</v>
+        <v>2556</v>
       </c>
       <c r="M5" s="1">
-        <v>3.524</v>
+        <v>3525</v>
       </c>
       <c r="N5" s="1">
-        <v>8.1630000000000003</v>
+        <v>7783</v>
       </c>
       <c r="O5" s="1">
-        <v>8.173</v>
+        <v>7578</v>
       </c>
       <c r="P5" s="1">
-        <v>4.1820000000000004</v>
+        <v>3274</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.2160000000000002</v>
+        <v>6837</v>
       </c>
       <c r="R5" s="1">
-        <v>1.65</v>
+        <v>1871</v>
       </c>
       <c r="S5" s="1">
-        <v>2.35</v>
+        <v>1938</v>
       </c>
       <c r="T5" s="1">
-        <v>0.876</v>
+        <v>1165</v>
       </c>
       <c r="U5" s="1">
-        <v>5.0090000000000003</v>
+        <v>6006</v>
       </c>
       <c r="V5" s="1">
-        <v>4.5359999999999996</v>
+        <v>4327</v>
       </c>
       <c r="W5" s="1">
-        <v>4.2190000000000003</v>
+        <v>4022</v>
       </c>
       <c r="X5" s="1">
-        <v>2.1789999999999998</v>
+        <v>1944</v>
       </c>
       <c r="Y5" s="1">
-        <v>3.8119999999999998</v>
+        <v>3862</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.379</v>
+        <v>1898</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.0530000000000008</v>
+        <v>7017</v>
       </c>
       <c r="AB5" s="1">
-        <v>6.1619999999999999</v>
+        <v>6792</v>
       </c>
       <c r="AC5" s="1">
-        <v>5.5430000000000001</v>
+        <v>5353</v>
       </c>
       <c r="AD5" s="1">
-        <v>4.3369999999999997</v>
+        <v>4222</v>
       </c>
       <c r="AE5" s="1">
-        <v>6.1689999999999996</v>
+        <v>4272</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.2569999999999997</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1032,97 +1032,97 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4.5439999999999996</v>
+        <v>4158</v>
       </c>
       <c r="C6" s="1">
-        <v>3.4870000000000001</v>
+        <v>4186</v>
       </c>
       <c r="D6" s="1">
-        <v>4.2590000000000003</v>
+        <v>4826</v>
       </c>
       <c r="E6" s="1">
-        <v>1.44</v>
+        <v>1709</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.99399999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="1">
-        <v>1.3169999999999999</v>
+        <v>1348</v>
       </c>
       <c r="I6" s="1">
-        <v>4.1639999999999997</v>
+        <v>4035</v>
       </c>
       <c r="J6" s="1">
-        <v>4.5579999999999998</v>
+        <v>5334</v>
       </c>
       <c r="K6" s="1">
-        <v>3.367</v>
+        <v>4357</v>
       </c>
       <c r="L6" s="1">
-        <v>3.0129999999999999</v>
+        <v>3908</v>
       </c>
       <c r="M6" s="1">
-        <v>4.3869999999999996</v>
+        <v>4810</v>
       </c>
       <c r="N6" s="1">
-        <v>8.0830000000000002</v>
+        <v>8800</v>
       </c>
       <c r="O6" s="1">
-        <v>8.0549999999999997</v>
+        <v>8595</v>
       </c>
       <c r="P6" s="1">
-        <v>4.2839999999999998</v>
+        <v>4290</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.4720000000000004</v>
+        <v>7854</v>
       </c>
       <c r="R6" s="1">
-        <v>2.4620000000000002</v>
+        <v>3748</v>
       </c>
       <c r="S6" s="1">
-        <v>2.67</v>
+        <v>4437</v>
       </c>
       <c r="T6" s="1">
-        <v>0.45400000000000001</v>
+        <v>879</v>
       </c>
       <c r="U6" s="1">
-        <v>4.1399999999999997</v>
+        <v>4622</v>
       </c>
       <c r="V6" s="1">
-        <v>3.47</v>
+        <v>3322</v>
       </c>
       <c r="W6" s="1">
-        <v>3.7509999999999999</v>
+        <v>2637</v>
       </c>
       <c r="X6" s="1">
-        <v>1.956</v>
+        <v>2131</v>
       </c>
       <c r="Y6" s="1">
-        <v>2.7450000000000001</v>
+        <v>2982</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.621</v>
+        <v>1200</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.5279999999999996</v>
+        <v>6023</v>
       </c>
       <c r="AB6" s="1">
-        <v>5.0949999999999998</v>
+        <v>5136</v>
       </c>
       <c r="AC6" s="1">
-        <v>5.0179999999999998</v>
+        <v>5680</v>
       </c>
       <c r="AD6" s="1">
-        <v>3.887</v>
+        <v>4408</v>
       </c>
       <c r="AE6" s="1">
-        <v>5.6440000000000001</v>
+        <v>4676</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.19</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1130,97 +1130,97 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>4.8330000000000002</v>
+        <v>3908</v>
       </c>
       <c r="C7" s="1">
-        <v>3.306</v>
+        <v>3268</v>
       </c>
       <c r="D7" s="1">
-        <v>3.5659999999999998</v>
+        <v>3741</v>
       </c>
       <c r="E7" s="1">
-        <v>0.89700000000000002</v>
+        <v>788</v>
       </c>
       <c r="F7" s="1">
-        <v>1.0049999999999999</v>
+        <v>1011</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0680000000000001</v>
+        <v>427</v>
       </c>
       <c r="I7" s="1">
-        <v>4.2709999999999999</v>
+        <v>3113</v>
       </c>
       <c r="J7" s="1">
-        <v>4.8339999999999996</v>
+        <v>4943</v>
       </c>
       <c r="K7" s="1">
-        <v>3.6429999999999998</v>
+        <v>3705</v>
       </c>
       <c r="L7" s="1">
-        <v>3.2890000000000001</v>
+        <v>3212</v>
       </c>
       <c r="M7" s="1">
-        <v>4.2069999999999999</v>
+        <v>3889</v>
       </c>
       <c r="N7" s="1">
-        <v>8.359</v>
+        <v>7879</v>
       </c>
       <c r="O7" s="1">
-        <v>8.33</v>
+        <v>7673</v>
       </c>
       <c r="P7" s="1">
-        <v>4.5599999999999996</v>
+        <v>3369</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.5789999999999997</v>
+        <v>6932</v>
       </c>
       <c r="R7" s="1">
-        <v>2.3340000000000001</v>
+        <v>2772</v>
       </c>
       <c r="S7" s="1">
-        <v>2.96</v>
+        <v>2726</v>
       </c>
       <c r="T7" s="1">
-        <v>0.74299999999999999</v>
+        <v>779</v>
       </c>
       <c r="U7" s="1">
-        <v>4.2270000000000003</v>
+        <v>5622</v>
       </c>
       <c r="V7" s="1">
-        <v>3.754</v>
+        <v>3994</v>
       </c>
       <c r="W7" s="1">
-        <v>3.4369999999999998</v>
+        <v>3637</v>
       </c>
       <c r="X7" s="1">
-        <v>2.2189999999999999</v>
+        <v>1997</v>
       </c>
       <c r="Y7" s="1">
-        <v>3.0289999999999999</v>
+        <v>3478</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.59699999999999998</v>
+        <v>1100</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.3879999999999999</v>
+        <v>7116</v>
       </c>
       <c r="AB7" s="1">
-        <v>5.3789999999999996</v>
+        <v>6890</v>
       </c>
       <c r="AC7" s="1">
-        <v>5.3079999999999998</v>
+        <v>5451</v>
       </c>
       <c r="AD7" s="1">
-        <v>4.1500000000000004</v>
+        <v>4274</v>
       </c>
       <c r="AE7" s="1">
-        <v>5.9340000000000002</v>
+        <v>4325</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.4740000000000002</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1228,97 +1228,97 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3.44</v>
+        <v>3481</v>
       </c>
       <c r="C8" s="1">
-        <v>2.835</v>
+        <v>2841</v>
       </c>
       <c r="D8" s="1">
-        <v>3.0950000000000002</v>
+        <v>3314</v>
       </c>
       <c r="E8" s="1">
-        <v>0.89500000000000002</v>
+        <v>361</v>
       </c>
       <c r="F8" s="1">
-        <v>1.335</v>
+        <v>1310</v>
       </c>
       <c r="G8" s="1">
-        <v>0.93</v>
+        <v>1056</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>4.1890000000000001</v>
+        <v>3412</v>
       </c>
       <c r="J8" s="1">
-        <v>5.8890000000000002</v>
+        <v>5242</v>
       </c>
       <c r="K8" s="1">
-        <v>4.0529999999999999</v>
+        <v>4004</v>
       </c>
       <c r="L8" s="1">
-        <v>3.4980000000000002</v>
+        <v>2917</v>
       </c>
       <c r="M8" s="1">
-        <v>3.7349999999999999</v>
+        <v>4187</v>
       </c>
       <c r="N8" s="1">
-        <v>8.4440000000000008</v>
+        <v>8177</v>
       </c>
       <c r="O8" s="1">
-        <v>8.4540000000000006</v>
+        <v>7972</v>
       </c>
       <c r="P8" s="1">
-        <v>4.4630000000000001</v>
+        <v>3668</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.4969999999999999</v>
+        <v>7231</v>
       </c>
       <c r="R8" s="1">
-        <v>1.865</v>
+        <v>2233</v>
       </c>
       <c r="S8" s="1">
-        <v>2.6309999999999998</v>
+        <v>2299</v>
       </c>
       <c r="T8" s="1">
-        <v>1.153</v>
+        <v>1077</v>
       </c>
       <c r="U8" s="1">
-        <v>4.6360000000000001</v>
+        <v>5618</v>
       </c>
       <c r="V8" s="1">
-        <v>4.1630000000000003</v>
+        <v>3990</v>
       </c>
       <c r="W8" s="1">
-        <v>3.8460000000000001</v>
+        <v>3633</v>
       </c>
       <c r="X8" s="1">
-        <v>2.629</v>
+        <v>2306</v>
       </c>
       <c r="Y8" s="1">
-        <v>3.4390000000000001</v>
+        <v>3474</v>
       </c>
       <c r="Z8" s="1">
-        <v>1.006</v>
+        <v>1399</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.4009999999999998</v>
+        <v>7414</v>
       </c>
       <c r="AB8" s="1">
-        <v>5.7889999999999997</v>
+        <v>7189</v>
       </c>
       <c r="AC8" s="1">
-        <v>5.891</v>
+        <v>5750</v>
       </c>
       <c r="AD8" s="1">
-        <v>4.5599999999999996</v>
+        <v>4583</v>
       </c>
       <c r="AE8" s="1">
-        <v>6.5170000000000003</v>
+        <v>4634</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.8839999999999999</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1326,97 +1326,97 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4.83</v>
+        <v>6329</v>
       </c>
       <c r="C9" s="1">
-        <v>4.2249999999999996</v>
+        <v>5412</v>
       </c>
       <c r="D9" s="1">
-        <v>4.484</v>
+        <v>6162</v>
       </c>
       <c r="E9" s="1">
-        <v>3.2480000000000002</v>
+        <v>3908</v>
       </c>
       <c r="F9" s="1">
-        <v>4.0339999999999998</v>
+        <v>4164</v>
       </c>
       <c r="G9" s="1">
-        <v>3.097</v>
+        <v>4266</v>
       </c>
       <c r="H9" s="1">
-        <v>3.419</v>
+        <v>4201</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1.85</v>
+        <v>1830</v>
       </c>
       <c r="K9" s="1">
-        <v>2.0249999999999999</v>
+        <v>2382</v>
       </c>
       <c r="L9" s="1">
-        <v>3.7869999999999999</v>
+        <v>3377</v>
       </c>
       <c r="M9" s="1">
-        <v>1.9710000000000001</v>
+        <v>1505</v>
       </c>
       <c r="N9" s="1">
-        <v>5.15</v>
+        <v>4769</v>
       </c>
       <c r="O9" s="1">
-        <v>4.774</v>
+        <v>4564</v>
       </c>
       <c r="P9" s="1">
-        <v>0.251</v>
+        <v>650</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.2030000000000003</v>
+        <v>3823</v>
       </c>
       <c r="R9" s="1">
-        <v>2.0699999999999998</v>
+        <v>3571</v>
       </c>
       <c r="S9" s="1">
-        <v>1.9339999999999999</v>
+        <v>2932</v>
       </c>
       <c r="T9" s="1">
-        <v>3.2789999999999999</v>
+        <v>3934</v>
       </c>
       <c r="U9" s="1">
-        <v>7.3109999999999999</v>
+        <v>9486</v>
       </c>
       <c r="V9" s="1">
-        <v>6.7140000000000004</v>
+        <v>7681</v>
       </c>
       <c r="W9" s="1">
-        <v>7.0490000000000004</v>
+        <v>7561</v>
       </c>
       <c r="X9" s="1">
-        <v>4.18</v>
+        <v>5380</v>
       </c>
       <c r="Y9" s="1">
-        <v>5.9939999999999998</v>
+        <v>7165</v>
       </c>
       <c r="Z9" s="1">
-        <v>3.7050000000000001</v>
+        <v>5391</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.5079999999999991</v>
+        <v>9300</v>
       </c>
       <c r="AB9" s="1">
-        <v>8.3119999999999994</v>
+        <v>9496</v>
       </c>
       <c r="AC9" s="1">
-        <v>5.9980000000000002</v>
+        <v>7884</v>
       </c>
       <c r="AD9" s="1">
-        <v>6.3390000000000004</v>
+        <v>7657</v>
       </c>
       <c r="AE9" s="1">
-        <v>6.6239999999999997</v>
+        <v>7708</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.4340000000000002</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1424,97 +1424,97 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>6.3049999999999997</v>
+        <v>8027</v>
       </c>
       <c r="C10" s="1">
-        <v>6.1130000000000004</v>
+        <v>7111</v>
       </c>
       <c r="D10" s="1">
-        <v>6.02</v>
+        <v>7861</v>
       </c>
       <c r="E10" s="1">
-        <v>4.7530000000000001</v>
+        <v>5607</v>
       </c>
       <c r="F10" s="1">
-        <v>5.3330000000000002</v>
+        <v>4557</v>
       </c>
       <c r="G10" s="1">
-        <v>4.9260000000000002</v>
+        <v>4828</v>
       </c>
       <c r="H10" s="1">
-        <v>5.2480000000000002</v>
+        <v>5900</v>
       </c>
       <c r="I10" s="1">
-        <v>1.83</v>
+        <v>2065</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.98</v>
+        <v>965</v>
       </c>
       <c r="L10" s="1">
-        <v>2.5339999999999998</v>
+        <v>1970</v>
       </c>
       <c r="M10" s="1">
-        <v>2.92</v>
+        <v>2619</v>
       </c>
       <c r="N10" s="1">
-        <v>3.1389999999999998</v>
+        <v>3314</v>
       </c>
       <c r="O10" s="1">
-        <v>3.1110000000000002</v>
+        <v>3109</v>
       </c>
       <c r="P10" s="1">
-        <v>1.615</v>
+        <v>1640</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.851</v>
+        <v>3184</v>
       </c>
       <c r="R10" s="1">
-        <v>3.9820000000000002</v>
+        <v>5270</v>
       </c>
       <c r="S10" s="1">
-        <v>3.7629999999999999</v>
+        <v>4631</v>
       </c>
       <c r="T10" s="1">
-        <v>3.8</v>
+        <v>4052</v>
       </c>
       <c r="U10" s="1">
-        <v>6.9880000000000004</v>
+        <v>8332</v>
       </c>
       <c r="V10" s="1">
-        <v>5.3970000000000002</v>
+        <v>6528</v>
       </c>
       <c r="W10" s="1">
-        <v>6.7249999999999996</v>
+        <v>6407</v>
       </c>
       <c r="X10" s="1">
-        <v>3.8570000000000002</v>
+        <v>3360</v>
       </c>
       <c r="Y10" s="1">
-        <v>5.6710000000000003</v>
+        <v>6011</v>
       </c>
       <c r="Z10" s="1">
-        <v>4.2699999999999996</v>
+        <v>4238</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.4979999999999993</v>
+        <v>11540</v>
       </c>
       <c r="AB10" s="1">
-        <v>7.4109999999999996</v>
+        <v>8343</v>
       </c>
       <c r="AC10" s="1">
-        <v>4.7789999999999999</v>
+        <v>6615</v>
       </c>
       <c r="AD10" s="1">
-        <v>5.4290000000000003</v>
+        <v>5453</v>
       </c>
       <c r="AE10" s="1">
-        <v>5.7190000000000003</v>
+        <v>5504</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.5060000000000002</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1522,97 +1522,97 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6.181</v>
+        <v>5852</v>
       </c>
       <c r="C11" s="1">
-        <v>4.8570000000000002</v>
+        <v>5228</v>
       </c>
       <c r="D11" s="1">
-        <v>5.117</v>
+        <v>5686</v>
       </c>
       <c r="E11" s="1">
-        <v>3.8809999999999998</v>
+        <v>3522</v>
       </c>
       <c r="F11" s="1">
-        <v>4.3979999999999997</v>
+        <v>3325</v>
       </c>
       <c r="G11" s="1">
-        <v>3.73</v>
+        <v>3596</v>
       </c>
       <c r="H11" s="1">
-        <v>4.0519999999999996</v>
+        <v>4023</v>
       </c>
       <c r="I11" s="1">
-        <v>2.0019999999999998</v>
+        <v>2010</v>
       </c>
       <c r="J11" s="1">
-        <v>0.98</v>
+        <v>965</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1.4730000000000001</v>
+        <v>1005</v>
       </c>
       <c r="M11" s="1">
-        <v>2.7210000000000001</v>
+        <v>2564</v>
       </c>
       <c r="N11" s="1">
-        <v>4</v>
+        <v>4154</v>
       </c>
       <c r="O11" s="1">
-        <v>3.9710000000000001</v>
+        <v>3949</v>
       </c>
       <c r="P11" s="1">
-        <v>1.788</v>
+        <v>1776</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.7119999999999997</v>
+        <v>4023</v>
       </c>
       <c r="R11" s="1">
-        <v>2.7029999999999998</v>
+        <v>3179</v>
       </c>
       <c r="S11" s="1">
-        <v>2.5670000000000002</v>
+        <v>2807</v>
       </c>
       <c r="T11" s="1">
-        <v>2.8650000000000002</v>
+        <v>2819</v>
       </c>
       <c r="U11" s="1">
-        <v>6.0529999999999999</v>
+        <v>7100</v>
       </c>
       <c r="V11" s="1">
-        <v>4.3579999999999997</v>
+        <v>4702</v>
       </c>
       <c r="W11" s="1">
-        <v>5.79</v>
+        <v>5175</v>
       </c>
       <c r="X11" s="1">
-        <v>2.2709999999999999</v>
+        <v>2426</v>
       </c>
       <c r="Y11" s="1">
-        <v>4.3970000000000002</v>
+        <v>4107</v>
       </c>
       <c r="Z11" s="1">
-        <v>3.0459999999999998</v>
+        <v>3006</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.5549999999999997</v>
+        <v>7554</v>
       </c>
       <c r="AB11" s="1">
-        <v>6.3719999999999999</v>
+        <v>6434</v>
       </c>
       <c r="AC11" s="1">
-        <v>3.7410000000000001</v>
+        <v>4477</v>
       </c>
       <c r="AD11" s="1">
-        <v>4.3899999999999997</v>
+        <v>4519</v>
       </c>
       <c r="AE11" s="1">
-        <v>5.6710000000000003</v>
+        <v>4570</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.4669999999999996</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1620,97 +1620,97 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5.69</v>
+        <v>5600</v>
       </c>
       <c r="C12" s="1">
-        <v>4.3940000000000001</v>
+        <v>4987</v>
       </c>
       <c r="D12" s="1">
-        <v>4.6539999999999999</v>
+        <v>5433</v>
       </c>
       <c r="E12" s="1">
-        <v>2.601</v>
+        <v>3217</v>
       </c>
       <c r="F12" s="1">
-        <v>3.9079999999999999</v>
+        <v>3013</v>
       </c>
       <c r="G12" s="1">
-        <v>3.1960000000000002</v>
+        <v>3284</v>
       </c>
       <c r="H12" s="1">
-        <v>2.9239999999999999</v>
+        <v>3510</v>
       </c>
       <c r="I12" s="1">
-        <v>2.9820000000000002</v>
+        <v>3787</v>
       </c>
       <c r="J12" s="1">
-        <v>1.9710000000000001</v>
+        <v>2534</v>
       </c>
       <c r="K12" s="1">
-        <v>1.0469999999999999</v>
+        <v>1432</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>3.702</v>
+        <v>4124</v>
       </c>
       <c r="N12" s="1">
-        <v>4.556</v>
+        <v>4723</v>
       </c>
       <c r="O12" s="1">
-        <v>4.5279999999999996</v>
+        <v>4518</v>
       </c>
       <c r="P12" s="1">
-        <v>2.7690000000000001</v>
+        <v>3335</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.2679999999999998</v>
+        <v>4593</v>
       </c>
       <c r="R12" s="1">
-        <v>2.0179999999999998</v>
+        <v>2874</v>
       </c>
       <c r="S12" s="1">
-        <v>2.0550000000000002</v>
+        <v>3312</v>
       </c>
       <c r="T12" s="1">
-        <v>2.375</v>
+        <v>2507</v>
       </c>
       <c r="U12" s="1">
-        <v>5.5620000000000003</v>
+        <v>6788</v>
       </c>
       <c r="V12" s="1">
-        <v>4.9649999999999999</v>
+        <v>3703</v>
       </c>
       <c r="W12" s="1">
-        <v>5.3</v>
+        <v>4863</v>
       </c>
       <c r="X12" s="1">
-        <v>2.431</v>
+        <v>1428</v>
       </c>
       <c r="Y12" s="1">
-        <v>4.2450000000000001</v>
+        <v>3109</v>
       </c>
       <c r="Z12" s="1">
-        <v>2.702</v>
+        <v>2693</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.0640000000000001</v>
+        <v>5552</v>
       </c>
       <c r="AB12" s="1">
-        <v>6.718</v>
+        <v>5436</v>
       </c>
       <c r="AC12" s="1">
-        <v>4.5540000000000003</v>
+        <v>3570</v>
       </c>
       <c r="AD12" s="1">
-        <v>4.5890000000000004</v>
+        <v>3521</v>
       </c>
       <c r="AE12" s="1">
-        <v>5.18</v>
+        <v>3572</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.6849999999999996</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1718,97 +1718,97 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3.629</v>
+        <v>3624</v>
       </c>
       <c r="C13" s="1">
-        <v>3.8239999999999998</v>
+        <v>3011</v>
       </c>
       <c r="D13" s="1">
-        <v>3.3439999999999999</v>
+        <v>3457</v>
       </c>
       <c r="E13" s="1">
-        <v>3.2839999999999998</v>
+        <v>5267</v>
       </c>
       <c r="F13" s="1">
-        <v>4.8369999999999997</v>
+        <v>5522</v>
       </c>
       <c r="G13" s="1">
-        <v>3.9</v>
+        <v>5625</v>
       </c>
       <c r="H13" s="1">
-        <v>4.2220000000000004</v>
+        <v>5560</v>
       </c>
       <c r="I13" s="1">
-        <v>1.2869999999999999</v>
+        <v>2246</v>
       </c>
       <c r="J13" s="1">
-        <v>2.6480000000000001</v>
+        <v>3196</v>
       </c>
       <c r="K13" s="1">
-        <v>2.6070000000000002</v>
+        <v>2972</v>
       </c>
       <c r="L13" s="1">
-        <v>4.1509999999999998</v>
+        <v>3966</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>5.5030000000000001</v>
+        <v>5574</v>
       </c>
       <c r="O13" s="1">
-        <v>5.5129999999999999</v>
+        <v>5369</v>
       </c>
       <c r="P13" s="1">
-        <v>1.3380000000000001</v>
+        <v>2383</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.556</v>
+        <v>4628</v>
       </c>
       <c r="R13" s="1">
-        <v>1.6930000000000001</v>
+        <v>2561</v>
       </c>
       <c r="S13" s="1">
-        <v>2.081</v>
+        <v>3250</v>
       </c>
       <c r="T13" s="1">
-        <v>4.0819999999999999</v>
+        <v>5293</v>
       </c>
       <c r="U13" s="1">
-        <v>7.8929999999999998</v>
+        <v>9257</v>
       </c>
       <c r="V13" s="1">
-        <v>7.2960000000000003</v>
+        <v>7452</v>
       </c>
       <c r="W13" s="1">
-        <v>7.6310000000000002</v>
+        <v>7332</v>
       </c>
       <c r="X13" s="1">
-        <v>4.7619999999999996</v>
+        <v>5151</v>
       </c>
       <c r="Y13" s="1">
-        <v>6.5759999999999996</v>
+        <v>6936</v>
       </c>
       <c r="Z13" s="1">
-        <v>4.508</v>
+        <v>5162</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.3170000000000002</v>
+        <v>14399</v>
       </c>
       <c r="AB13" s="1">
-        <v>8.8940000000000001</v>
+        <v>9267</v>
       </c>
       <c r="AC13" s="1">
-        <v>6.8070000000000004</v>
+        <v>9235</v>
       </c>
       <c r="AD13" s="1">
-        <v>6.92</v>
+        <v>7428</v>
       </c>
       <c r="AE13" s="1">
-        <v>7.4329999999999998</v>
+        <v>7479</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.016</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -1816,97 +1816,97 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>10.478999999999999</v>
+        <v>10583</v>
       </c>
       <c r="C14" s="1">
-        <v>9.8740000000000006</v>
+        <v>8664</v>
       </c>
       <c r="D14" s="1">
-        <v>10.134</v>
+        <v>10416</v>
       </c>
       <c r="E14" s="1">
-        <v>8.0129999999999999</v>
+        <v>8163</v>
       </c>
       <c r="F14" s="1">
-        <v>8.7989999999999995</v>
+        <v>8082</v>
       </c>
       <c r="G14" s="1">
-        <v>7.8609999999999998</v>
+        <v>8353</v>
       </c>
       <c r="H14" s="1">
-        <v>8.1829999999999998</v>
+        <v>8456</v>
       </c>
       <c r="I14" s="1">
-        <v>4.7679999999999998</v>
+        <v>5149</v>
       </c>
       <c r="J14" s="1">
-        <v>3.3140000000000001</v>
+        <v>3139</v>
       </c>
       <c r="K14" s="1">
-        <v>4.1950000000000003</v>
+        <v>3958</v>
       </c>
       <c r="L14" s="1">
-        <v>4.7220000000000004</v>
+        <v>4555</v>
       </c>
       <c r="M14" s="1">
-        <v>5.3090000000000002</v>
+        <v>5474</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>0.27800000000000002</v>
+        <v>238</v>
       </c>
       <c r="P14" s="1">
-        <v>5.0419999999999998</v>
+        <v>4547</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.95199999999999996</v>
+        <v>1117</v>
       </c>
       <c r="R14" s="1">
-        <v>6.423</v>
+        <v>7826</v>
       </c>
       <c r="S14" s="1">
-        <v>7.8079999999999998</v>
+        <v>7187</v>
       </c>
       <c r="T14" s="1">
-        <v>8.0440000000000005</v>
+        <v>7577</v>
       </c>
       <c r="U14" s="1">
-        <v>10.539</v>
+        <v>11857</v>
       </c>
       <c r="V14" s="1">
-        <v>8.7230000000000008</v>
+        <v>8070</v>
       </c>
       <c r="W14" s="1">
-        <v>10.276999999999999</v>
+        <v>9932</v>
       </c>
       <c r="X14" s="1">
-        <v>7.4080000000000004</v>
+        <v>5594</v>
       </c>
       <c r="Y14" s="1">
-        <v>9.2219999999999995</v>
+        <v>9536</v>
       </c>
       <c r="Z14" s="1">
-        <v>8.4700000000000006</v>
+        <v>7763</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.3570000000000002</v>
+        <v>8475</v>
       </c>
       <c r="AB14" s="1">
-        <v>9.907</v>
+        <v>9010</v>
       </c>
       <c r="AC14" s="1">
-        <v>7.3440000000000003</v>
+        <v>6626</v>
       </c>
       <c r="AD14" s="1">
-        <v>7.8319999999999999</v>
+        <v>6790</v>
       </c>
       <c r="AE14" s="1">
-        <v>7.0119999999999996</v>
+        <v>6955</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.52</v>
+        <v>8227</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -1914,97 +1914,97 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>10.271000000000001</v>
+        <v>13541</v>
       </c>
       <c r="C15" s="1">
-        <v>9.6660000000000004</v>
+        <v>8671</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9260000000000002</v>
+        <v>13374</v>
       </c>
       <c r="E15" s="1">
-        <v>7.8049999999999997</v>
+        <v>8170</v>
       </c>
       <c r="F15" s="1">
-        <v>8.5909999999999993</v>
+        <v>8051</v>
       </c>
       <c r="G15" s="1">
-        <v>7.6529999999999996</v>
+        <v>8322</v>
       </c>
       <c r="H15" s="1">
-        <v>7.9749999999999996</v>
+        <v>8463</v>
       </c>
       <c r="I15" s="1">
-        <v>4.5599999999999996</v>
+        <v>5156</v>
       </c>
       <c r="J15" s="1">
-        <v>3.1059999999999999</v>
+        <v>3108</v>
       </c>
       <c r="K15" s="1">
-        <v>3.9870000000000001</v>
+        <v>3927</v>
       </c>
       <c r="L15" s="1">
-        <v>4.5140000000000002</v>
+        <v>4524</v>
       </c>
       <c r="M15" s="1">
-        <v>5.101</v>
+        <v>5481</v>
       </c>
       <c r="N15" s="1">
-        <v>0.23499999999999999</v>
+        <v>275</v>
       </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>4.8339999999999996</v>
+        <v>4516</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.74399999999999999</v>
+        <v>1124</v>
       </c>
       <c r="R15" s="1">
-        <v>6.2149999999999999</v>
+        <v>7833</v>
       </c>
       <c r="S15" s="1">
-        <v>6.6020000000000003</v>
+        <v>7194</v>
       </c>
       <c r="T15" s="1">
-        <v>7.8360000000000003</v>
+        <v>7545</v>
       </c>
       <c r="U15" s="1">
-        <v>10.331</v>
+        <v>11826</v>
       </c>
       <c r="V15" s="1">
-        <v>8.5150000000000006</v>
+        <v>8280</v>
       </c>
       <c r="W15" s="1">
-        <v>10.069000000000001</v>
+        <v>9901</v>
       </c>
       <c r="X15" s="1">
-        <v>7.2</v>
+        <v>5563</v>
       </c>
       <c r="Y15" s="1">
-        <v>9.0139999999999993</v>
+        <v>9505</v>
       </c>
       <c r="Z15" s="1">
-        <v>8.2609999999999992</v>
+        <v>7732</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.0540000000000003</v>
+        <v>8686</v>
       </c>
       <c r="AB15" s="1">
-        <v>9.6989999999999998</v>
+        <v>9220</v>
       </c>
       <c r="AC15" s="1">
-        <v>7.1360000000000001</v>
+        <v>6836</v>
       </c>
       <c r="AD15" s="1">
-        <v>7.6239999999999997</v>
+        <v>7000</v>
       </c>
       <c r="AE15" s="1">
-        <v>6.8040000000000003</v>
+        <v>7165</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.3119999999999994</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2012,97 +2012,97 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>5.4870000000000001</v>
+        <v>6606</v>
       </c>
       <c r="C16" s="1">
-        <v>4.4749999999999996</v>
+        <v>5690</v>
       </c>
       <c r="D16" s="1">
-        <v>4.7350000000000003</v>
+        <v>6440</v>
       </c>
       <c r="E16" s="1">
-        <v>3.4990000000000001</v>
+        <v>4186</v>
       </c>
       <c r="F16" s="1">
-        <v>4.2850000000000001</v>
+        <v>4287</v>
       </c>
       <c r="G16" s="1">
-        <v>3.3479999999999999</v>
+        <v>4559</v>
       </c>
       <c r="H16" s="1">
-        <v>3.67</v>
+        <v>4479</v>
       </c>
       <c r="I16" s="1">
-        <v>0.251</v>
+        <v>278</v>
       </c>
       <c r="J16" s="1">
-        <v>1.6359999999999999</v>
+        <v>1619</v>
       </c>
       <c r="K16" s="1">
-        <v>1.786</v>
+        <v>1777</v>
       </c>
       <c r="L16" s="1">
-        <v>3.331</v>
+        <v>2772</v>
       </c>
       <c r="M16" s="1">
-        <v>2.1030000000000002</v>
+        <v>1314</v>
       </c>
       <c r="N16" s="1">
-        <v>4.5519999999999996</v>
+        <v>5047</v>
       </c>
       <c r="O16" s="1">
-        <v>4.5229999999999997</v>
+        <v>4842</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.4539999999999997</v>
+        <v>4101</v>
       </c>
       <c r="R16" s="1">
-        <v>2.3210000000000002</v>
+        <v>3849</v>
       </c>
       <c r="S16" s="1">
-        <v>2.1850000000000001</v>
+        <v>2492</v>
       </c>
       <c r="T16" s="1">
-        <v>3.53</v>
+        <v>3782</v>
       </c>
       <c r="U16" s="1">
-        <v>7.0720000000000001</v>
+        <v>8063</v>
       </c>
       <c r="V16" s="1">
-        <v>6.4749999999999996</v>
+        <v>6258</v>
       </c>
       <c r="W16" s="1">
-        <v>6.81</v>
+        <v>6138</v>
       </c>
       <c r="X16" s="1">
-        <v>3.9409999999999998</v>
+        <v>3957</v>
       </c>
       <c r="Y16" s="1">
-        <v>5.7549999999999999</v>
+        <v>5742</v>
       </c>
       <c r="Z16" s="1">
-        <v>3.956</v>
+        <v>3968</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.5830000000000002</v>
+        <v>11302</v>
       </c>
       <c r="AB16" s="1">
-        <v>8.0730000000000004</v>
+        <v>8073</v>
       </c>
       <c r="AC16" s="1">
-        <v>6.0730000000000004</v>
+        <v>7534</v>
       </c>
       <c r="AD16" s="1">
-        <v>6.0990000000000002</v>
+        <v>6234</v>
       </c>
       <c r="AE16" s="1">
-        <v>6.6989999999999998</v>
+        <v>6285</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.1950000000000003</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2110,97 +2110,97 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9.5310000000000006</v>
+        <v>9639</v>
       </c>
       <c r="C17" s="1">
-        <v>8.9250000000000007</v>
+        <v>7720</v>
       </c>
       <c r="D17" s="1">
-        <v>9.1850000000000005</v>
+        <v>9472</v>
       </c>
       <c r="E17" s="1">
-        <v>7.0640000000000001</v>
+        <v>7218</v>
       </c>
       <c r="F17" s="1">
-        <v>7.85</v>
+        <v>7474</v>
       </c>
       <c r="G17" s="1">
-        <v>6.9130000000000003</v>
+        <v>7576</v>
       </c>
       <c r="H17" s="1">
-        <v>7.2350000000000003</v>
+        <v>7511</v>
       </c>
       <c r="I17" s="1">
-        <v>3.82</v>
+        <v>4205</v>
       </c>
       <c r="J17" s="1">
-        <v>3.1859999999999999</v>
+        <v>3854</v>
       </c>
       <c r="K17" s="1">
-        <v>4.0670000000000002</v>
+        <v>4673</v>
       </c>
       <c r="L17" s="1">
-        <v>4.5949999999999998</v>
+        <v>5270</v>
       </c>
       <c r="M17" s="1">
-        <v>4.3600000000000003</v>
+        <v>4530</v>
       </c>
       <c r="N17" s="1">
-        <v>1.115</v>
+        <v>949</v>
       </c>
       <c r="O17" s="1">
-        <v>1.125</v>
+        <v>744</v>
       </c>
       <c r="P17" s="1">
-        <v>4.0940000000000003</v>
+        <v>4460</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>5.4740000000000002</v>
+        <v>6881</v>
       </c>
       <c r="S17" s="1">
-        <v>5.8620000000000001</v>
+        <v>6242</v>
       </c>
       <c r="T17" s="1">
-        <v>7.0949999999999998</v>
+        <v>7244</v>
       </c>
       <c r="U17" s="1">
-        <v>10.411</v>
+        <v>12248</v>
       </c>
       <c r="V17" s="1">
-        <v>8.0679999999999996</v>
+        <v>8259</v>
       </c>
       <c r="W17" s="1">
-        <v>10.148999999999999</v>
+        <v>10323</v>
       </c>
       <c r="X17" s="1">
-        <v>7.7679999999999998</v>
+        <v>6309</v>
       </c>
       <c r="Y17" s="1">
-        <v>9.9540000000000006</v>
+        <v>9927</v>
       </c>
       <c r="Z17" s="1">
-        <v>7.5209999999999999</v>
+        <v>8154</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.6070000000000002</v>
+        <v>8664</v>
       </c>
       <c r="AB17" s="1">
-        <v>9.2520000000000007</v>
+        <v>9199</v>
       </c>
       <c r="AC17" s="1">
-        <v>6.6890000000000001</v>
+        <v>6815</v>
       </c>
       <c r="AD17" s="1">
-        <v>7.1769999999999996</v>
+        <v>6979</v>
       </c>
       <c r="AE17" s="1">
-        <v>6.3559999999999999</v>
+        <v>7143</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.8639999999999999</v>
+        <v>8416</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2208,97 +2208,97 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>3.06</v>
+        <v>2987</v>
       </c>
       <c r="C18" s="1">
-        <v>2.4550000000000001</v>
+        <v>2374</v>
       </c>
       <c r="D18" s="1">
-        <v>2.7149999999999999</v>
+        <v>2820</v>
       </c>
       <c r="E18" s="1">
-        <v>1.9139999999999999</v>
+        <v>1649</v>
       </c>
       <c r="F18" s="1">
-        <v>3.746</v>
+        <v>2460</v>
       </c>
       <c r="G18" s="1">
-        <v>2.6389999999999998</v>
+        <v>2744</v>
       </c>
       <c r="H18" s="1">
-        <v>2.238</v>
+        <v>1872</v>
       </c>
       <c r="I18" s="1">
-        <v>3.5720000000000001</v>
+        <v>2068</v>
       </c>
       <c r="J18" s="1">
-        <v>5.2709999999999999</v>
+        <v>3981</v>
       </c>
       <c r="K18" s="1">
-        <v>3.222</v>
+        <v>2660</v>
       </c>
       <c r="L18" s="1">
-        <v>2.8740000000000001</v>
+        <v>2018</v>
       </c>
       <c r="M18" s="1">
-        <v>2.254</v>
+        <v>1954</v>
       </c>
       <c r="N18" s="1">
-        <v>7.827</v>
+        <v>6422</v>
       </c>
       <c r="O18" s="1">
-        <v>7.8369999999999997</v>
+        <v>6216</v>
       </c>
       <c r="P18" s="1">
-        <v>3.8460000000000001</v>
+        <v>2324</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.88</v>
+        <v>5476</v>
       </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <v>1.452</v>
+        <v>770</v>
       </c>
       <c r="T18" s="1">
-        <v>2.73</v>
+        <v>2310</v>
       </c>
       <c r="U18" s="1">
-        <v>6.2560000000000002</v>
+        <v>7317</v>
       </c>
       <c r="V18" s="1">
-        <v>5.4249999999999998</v>
+        <v>5513</v>
       </c>
       <c r="W18" s="1">
-        <v>5.9930000000000003</v>
+        <v>5392</v>
       </c>
       <c r="X18" s="1">
-        <v>2.8079999999999998</v>
+        <v>2905</v>
       </c>
       <c r="Y18" s="1">
-        <v>4.7009999999999996</v>
+        <v>4996</v>
       </c>
       <c r="Z18" s="1">
-        <v>3.3620000000000001</v>
+        <v>3223</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.5919999999999996</v>
+        <v>7676</v>
       </c>
       <c r="AB18" s="1">
-        <v>7.2450000000000001</v>
+        <v>7451</v>
       </c>
       <c r="AC18" s="1">
-        <v>5.0810000000000004</v>
+        <v>6012</v>
       </c>
       <c r="AD18" s="1">
-        <v>5.569</v>
+        <v>6004</v>
       </c>
       <c r="AE18" s="1">
-        <v>5.7069999999999999</v>
+        <v>5570</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.1459999999999999</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2306,97 +2306,97 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>3.75</v>
+        <v>4048</v>
       </c>
       <c r="C19" s="1">
-        <v>3.145</v>
+        <v>3435</v>
       </c>
       <c r="D19" s="1">
-        <v>3.4049999999999998</v>
+        <v>3882</v>
       </c>
       <c r="E19" s="1">
-        <v>1.9810000000000001</v>
+        <v>2352</v>
       </c>
       <c r="F19" s="1">
-        <v>4.4359999999999999</v>
+        <v>2672</v>
       </c>
       <c r="G19" s="1">
-        <v>2.492</v>
+        <v>2957</v>
       </c>
       <c r="H19" s="1">
-        <v>2.3050000000000002</v>
+        <v>2645</v>
       </c>
       <c r="I19" s="1">
-        <v>2.931</v>
+        <v>1935</v>
       </c>
       <c r="J19" s="1">
-        <v>3.7730000000000001</v>
+        <v>3765</v>
       </c>
       <c r="K19" s="1">
-        <v>2.8479999999999999</v>
+        <v>2527</v>
       </c>
       <c r="L19" s="1">
-        <v>3.3109999999999999</v>
+        <v>2057</v>
       </c>
       <c r="M19" s="1">
-        <v>3.0710000000000002</v>
+        <v>2037</v>
       </c>
       <c r="N19" s="1">
-        <v>7.1859999999999999</v>
+        <v>7810</v>
       </c>
       <c r="O19" s="1">
-        <v>7.1959999999999997</v>
+        <v>7605</v>
       </c>
       <c r="P19" s="1">
-        <v>2.4870000000000001</v>
+        <v>2191</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.2389999999999999</v>
+        <v>6864</v>
       </c>
       <c r="R19" s="1">
-        <v>0.76800000000000002</v>
+        <v>1453</v>
       </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>2.7970000000000002</v>
+        <v>3075</v>
       </c>
       <c r="U19" s="1">
-        <v>6.7009999999999996</v>
+        <v>7356</v>
       </c>
       <c r="V19" s="1">
-        <v>5.8310000000000004</v>
+        <v>5551</v>
       </c>
       <c r="W19" s="1">
-        <v>6.4390000000000001</v>
+        <v>5431</v>
       </c>
       <c r="X19" s="1">
-        <v>3.2130000000000001</v>
+        <v>3485</v>
       </c>
       <c r="Y19" s="1">
-        <v>5.1070000000000002</v>
+        <v>5035</v>
       </c>
       <c r="Z19" s="1">
-        <v>3.3159999999999998</v>
+        <v>3261</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.9969999999999999</v>
+        <v>7817</v>
       </c>
       <c r="AB19" s="1">
-        <v>7.6509999999999998</v>
+        <v>7592</v>
       </c>
       <c r="AC19" s="1">
-        <v>5.4870000000000001</v>
+        <v>6153</v>
       </c>
       <c r="AD19" s="1">
-        <v>5.6360000000000001</v>
+        <v>5527</v>
       </c>
       <c r="AE19" s="1">
-        <v>6.1130000000000004</v>
+        <v>5711</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.5519999999999996</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2404,97 +2404,97 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>3.8610000000000002</v>
+        <v>3980</v>
       </c>
       <c r="C20" s="1">
-        <v>3.2559999999999998</v>
+        <v>3339</v>
       </c>
       <c r="D20" s="1">
-        <v>3.516</v>
+        <v>3813</v>
       </c>
       <c r="E20" s="1">
-        <v>0.91300000000000003</v>
+        <v>876</v>
       </c>
       <c r="F20" s="1">
-        <v>0.878</v>
+        <v>453</v>
       </c>
       <c r="G20" s="1">
-        <v>0.76100000000000001</v>
+        <v>738</v>
       </c>
       <c r="H20" s="1">
-        <v>1.0840000000000001</v>
+        <v>1165</v>
       </c>
       <c r="I20" s="1">
-        <v>3.9329999999999998</v>
+        <v>3279</v>
       </c>
       <c r="J20" s="1">
-        <v>4.0519999999999996</v>
+        <v>3800</v>
       </c>
       <c r="K20" s="1">
-        <v>2.8610000000000002</v>
+        <v>2824</v>
       </c>
       <c r="L20" s="1">
-        <v>2.5070000000000001</v>
+        <v>2374</v>
       </c>
       <c r="M20" s="1">
-        <v>4.1559999999999997</v>
+        <v>4054</v>
       </c>
       <c r="N20" s="1">
-        <v>7.577</v>
+        <v>8044</v>
       </c>
       <c r="O20" s="1">
-        <v>7.548</v>
+        <v>7839</v>
       </c>
       <c r="P20" s="1">
-        <v>3.778</v>
+        <v>3534</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.2409999999999997</v>
+        <v>7098</v>
       </c>
       <c r="R20" s="1">
-        <v>2.3109999999999999</v>
+        <v>2731</v>
       </c>
       <c r="S20" s="1">
-        <v>2.6720000000000002</v>
+        <v>2797</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4.0999999999999996</v>
+        <v>5023</v>
       </c>
       <c r="V20" s="1">
-        <v>3.4060000000000001</v>
+        <v>3203</v>
       </c>
       <c r="W20" s="1">
-        <v>3.31</v>
+        <v>3079</v>
       </c>
       <c r="X20" s="1">
-        <v>1.871</v>
+        <v>1211</v>
       </c>
       <c r="Y20" s="1">
-        <v>2.681</v>
+        <v>2686</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.47</v>
+        <v>321</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.1029999999999998</v>
+        <v>6522</v>
       </c>
       <c r="AB20" s="1">
-        <v>5.032</v>
+        <v>5017</v>
       </c>
       <c r="AC20" s="1">
-        <v>4.593</v>
+        <v>4857</v>
       </c>
       <c r="AD20" s="1">
-        <v>3.7589999999999999</v>
+        <v>3488</v>
       </c>
       <c r="AE20" s="1">
-        <v>5.2190000000000003</v>
+        <v>3539</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.1259999999999999</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2502,97 +2502,97 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9.5760000000000005</v>
+        <v>9006</v>
       </c>
       <c r="C21" s="1">
-        <v>8.0969999999999995</v>
+        <v>8095</v>
       </c>
       <c r="D21" s="1">
-        <v>8.3569999999999993</v>
+        <v>8839</v>
       </c>
       <c r="E21" s="1">
-        <v>6.0510000000000002</v>
+        <v>5009</v>
       </c>
       <c r="F21" s="1">
-        <v>4.6210000000000004</v>
+        <v>4140</v>
       </c>
       <c r="G21" s="1">
-        <v>5.6050000000000004</v>
+        <v>4221</v>
       </c>
       <c r="H21" s="1">
-        <v>5.625</v>
+        <v>4648</v>
       </c>
       <c r="I21" s="1">
-        <v>9.4849999999999994</v>
+        <v>7311</v>
       </c>
       <c r="J21" s="1">
-        <v>8.3330000000000002</v>
+        <v>6987</v>
       </c>
       <c r="K21" s="1">
-        <v>7.1420000000000003</v>
+        <v>6011</v>
       </c>
       <c r="L21" s="1">
-        <v>6.7869999999999999</v>
+        <v>5562</v>
       </c>
       <c r="M21" s="1">
-        <v>8.9920000000000009</v>
+        <v>7864</v>
       </c>
       <c r="N21" s="1">
-        <v>11.856999999999999</v>
+        <v>10539</v>
       </c>
       <c r="O21" s="1">
-        <v>11.829000000000001</v>
+        <v>10334</v>
       </c>
       <c r="P21" s="1">
-        <v>8.0589999999999993</v>
+        <v>7076</v>
       </c>
       <c r="Q21" s="1">
-        <v>12.246</v>
+        <v>10409</v>
       </c>
       <c r="R21" s="1">
-        <v>7.3159999999999998</v>
+        <v>6255</v>
       </c>
       <c r="S21" s="1">
-        <v>7.3540000000000001</v>
+        <v>6702</v>
       </c>
       <c r="T21" s="1">
-        <v>5.0229999999999997</v>
+        <v>4100</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>2.2719999999999998</v>
+        <v>2076</v>
       </c>
       <c r="W21" s="1">
-        <v>1.26</v>
+        <v>2011</v>
       </c>
       <c r="X21" s="1">
-        <v>4.6349999999999998</v>
+        <v>3581</v>
       </c>
       <c r="Y21" s="1">
-        <v>1.7769999999999999</v>
+        <v>1621</v>
       </c>
       <c r="Z21" s="1">
-        <v>5.242</v>
+        <v>3873</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.8410000000000002</v>
+        <v>4752</v>
       </c>
       <c r="AB21" s="1">
-        <v>3.8330000000000002</v>
+        <v>3866</v>
       </c>
       <c r="AC21" s="1">
-        <v>4.6870000000000003</v>
+        <v>4615</v>
       </c>
       <c r="AD21" s="1">
-        <v>3.5369999999999999</v>
+        <v>3952</v>
       </c>
       <c r="AE21" s="1">
-        <v>4.306</v>
+        <v>3475</v>
       </c>
       <c r="AF21" s="1">
-        <v>2.786</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2600,97 +2600,97 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>7.5990000000000002</v>
+        <v>9394</v>
       </c>
       <c r="C22" s="1">
-        <v>7.4459999999999997</v>
+        <v>9064</v>
       </c>
       <c r="D22" s="1">
-        <v>7.3140000000000001</v>
+        <v>9227</v>
       </c>
       <c r="E22" s="1">
-        <v>4.407</v>
+        <v>4559</v>
       </c>
       <c r="F22" s="1">
-        <v>3.3570000000000002</v>
+        <v>3491</v>
       </c>
       <c r="G22" s="1">
-        <v>4.0129999999999999</v>
+        <v>3771</v>
       </c>
       <c r="H22" s="1">
-        <v>4.0330000000000004</v>
+        <v>4197</v>
       </c>
       <c r="I22" s="1">
-        <v>7.7169999999999996</v>
+        <v>8557</v>
       </c>
       <c r="J22" s="1">
-        <v>6.5640000000000001</v>
+        <v>8233</v>
       </c>
       <c r="K22" s="1">
-        <v>4.78</v>
+        <v>4339</v>
       </c>
       <c r="L22" s="1">
-        <v>3.7389999999999999</v>
+        <v>6807</v>
       </c>
       <c r="M22" s="1">
-        <v>7.2229999999999999</v>
+        <v>9110</v>
       </c>
       <c r="N22" s="1">
-        <v>8.0879999999999992</v>
+        <v>8746</v>
       </c>
       <c r="O22" s="1">
-        <v>8.3010000000000002</v>
+        <v>8541</v>
       </c>
       <c r="P22" s="1">
-        <v>6.29</v>
+        <v>8322</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.2750000000000004</v>
+        <v>8093</v>
       </c>
       <c r="R22" s="1">
-        <v>5.548</v>
+        <v>5447</v>
       </c>
       <c r="S22" s="1">
-        <v>5.585</v>
+        <v>7948</v>
       </c>
       <c r="T22" s="1">
-        <v>3.2389999999999999</v>
+        <v>3428</v>
       </c>
       <c r="U22" s="1">
-        <v>2.093</v>
+        <v>2083</v>
       </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>2.1110000000000002</v>
+        <v>1805</v>
       </c>
       <c r="X22" s="1">
-        <v>2.754</v>
+        <v>2656</v>
       </c>
       <c r="Y22" s="1">
-        <v>1.6639999999999999</v>
+        <v>1435</v>
       </c>
       <c r="Z22" s="1">
-        <v>4.1399999999999997</v>
+        <v>3180</v>
       </c>
       <c r="AA22" s="1">
-        <v>2.9649999999999999</v>
+        <v>3035</v>
       </c>
       <c r="AB22" s="1">
-        <v>1.9570000000000001</v>
+        <v>2149</v>
       </c>
       <c r="AC22" s="1">
-        <v>2.7410000000000001</v>
+        <v>2898</v>
       </c>
       <c r="AD22" s="1">
-        <v>1.5920000000000001</v>
+        <v>2235</v>
       </c>
       <c r="AE22" s="1">
-        <v>2.36</v>
+        <v>1757</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.61499999999999999</v>
+        <v>786</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2698,97 +2698,97 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>7.1689999999999996</v>
+        <v>8743</v>
       </c>
       <c r="C23" s="1">
-        <v>6.1120000000000001</v>
+        <v>7833</v>
       </c>
       <c r="D23" s="1">
-        <v>6.3719999999999999</v>
+        <v>8576</v>
       </c>
       <c r="E23" s="1">
-        <v>4.0659999999999998</v>
+        <v>4219</v>
       </c>
       <c r="F23" s="1">
-        <v>2.6360000000000001</v>
+        <v>3751</v>
       </c>
       <c r="G23" s="1">
-        <v>3.62</v>
+        <v>3431</v>
       </c>
       <c r="H23" s="1">
-        <v>3.64</v>
+        <v>3858</v>
       </c>
       <c r="I23" s="1">
-        <v>7.56</v>
+        <v>7048</v>
       </c>
       <c r="J23" s="1">
-        <v>6.407</v>
+        <v>6725</v>
       </c>
       <c r="K23" s="1">
-        <v>5.2160000000000002</v>
+        <v>5749</v>
       </c>
       <c r="L23" s="1">
-        <v>4.8620000000000001</v>
+        <v>5299</v>
       </c>
       <c r="M23" s="1">
-        <v>7.0659999999999998</v>
+        <v>7602</v>
       </c>
       <c r="N23" s="1">
-        <v>9.9320000000000004</v>
+        <v>10277</v>
       </c>
       <c r="O23" s="1">
-        <v>9.9039999999999999</v>
+        <v>10072</v>
       </c>
       <c r="P23" s="1">
-        <v>6.133</v>
+        <v>6814</v>
       </c>
       <c r="Q23" s="1">
-        <v>10.32</v>
+        <v>10146</v>
       </c>
       <c r="R23" s="1">
-        <v>5.391</v>
+        <v>5992</v>
       </c>
       <c r="S23" s="1">
-        <v>5.4279999999999999</v>
+        <v>6439</v>
       </c>
       <c r="T23" s="1">
-        <v>3.0790000000000002</v>
+        <v>3310</v>
       </c>
       <c r="U23" s="1">
-        <v>2.0110000000000001</v>
+        <v>1260</v>
       </c>
       <c r="V23" s="1">
-        <v>2.1120000000000001</v>
+        <v>2093</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>2.65</v>
+        <v>3585</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.81</v>
+        <v>1966</v>
       </c>
       <c r="Z23" s="1">
-        <v>3.2570000000000001</v>
+        <v>3484</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.6319999999999997</v>
+        <v>4770</v>
       </c>
       <c r="AB23" s="1">
-        <v>3.6240000000000001</v>
+        <v>3884</v>
       </c>
       <c r="AC23" s="1">
-        <v>4.4080000000000004</v>
+        <v>4633</v>
       </c>
       <c r="AD23" s="1">
-        <v>3.2589999999999999</v>
+        <v>3970</v>
       </c>
       <c r="AE23" s="1">
-        <v>4.0270000000000001</v>
+        <v>3493</v>
       </c>
       <c r="AF23" s="1">
-        <v>2.508</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -2796,97 +2796,97 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>4.9889999999999999</v>
+        <v>4938</v>
       </c>
       <c r="C24" s="1">
-        <v>4.0359999999999996</v>
+        <v>4325</v>
       </c>
       <c r="D24" s="1">
-        <v>4.7039999999999997</v>
+        <v>4771</v>
       </c>
       <c r="E24" s="1">
-        <v>1.9890000000000001</v>
+        <v>2178</v>
       </c>
       <c r="F24" s="1">
-        <v>2.1309999999999998</v>
+        <v>1956</v>
       </c>
       <c r="G24" s="1">
-        <v>1.98</v>
+        <v>2215</v>
       </c>
       <c r="H24" s="1">
-        <v>2.3130000000000002</v>
+        <v>2641</v>
       </c>
       <c r="I24" s="1">
-        <v>5.38</v>
+        <v>4179</v>
       </c>
       <c r="J24" s="1">
-        <v>3.36</v>
+        <v>3856</v>
       </c>
       <c r="K24" s="1">
-        <v>2.4670000000000001</v>
+        <v>2231</v>
       </c>
       <c r="L24" s="1">
-        <v>1.427</v>
+        <v>2430</v>
       </c>
       <c r="M24" s="1">
-        <v>4.8860000000000001</v>
+        <v>4733</v>
       </c>
       <c r="N24" s="1">
-        <v>5.593</v>
+        <v>7408</v>
       </c>
       <c r="O24" s="1">
-        <v>5.5650000000000004</v>
+        <v>7203</v>
       </c>
       <c r="P24" s="1">
-        <v>3.9529999999999998</v>
+        <v>3945</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.3049999999999997</v>
+        <v>7770</v>
       </c>
       <c r="R24" s="1">
-        <v>2.9060000000000001</v>
+        <v>2807</v>
       </c>
       <c r="S24" s="1">
-        <v>3.4830000000000001</v>
+        <v>3215</v>
       </c>
       <c r="T24" s="1">
-        <v>1.212</v>
+        <v>1872</v>
       </c>
       <c r="U24" s="1">
-        <v>3.58</v>
+        <v>4635</v>
       </c>
       <c r="V24" s="1">
-        <v>2.633</v>
+        <v>2718</v>
       </c>
       <c r="W24" s="1">
-        <v>3.5840000000000001</v>
+        <v>2650</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>2.1349999999999998</v>
+        <v>2201</v>
       </c>
       <c r="Z24" s="1">
-        <v>1.722</v>
+        <v>1624</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.7709999999999999</v>
+        <v>4643</v>
       </c>
       <c r="AB24" s="1">
-        <v>4.4109999999999996</v>
+        <v>4528</v>
       </c>
       <c r="AC24" s="1">
-        <v>3.0289999999999999</v>
+        <v>3569</v>
       </c>
       <c r="AD24" s="1">
-        <v>2.4009999999999998</v>
+        <v>2613</v>
       </c>
       <c r="AE24" s="1">
-        <v>2.7559999999999998</v>
+        <v>2664</v>
       </c>
       <c r="AF24" s="1">
-        <v>2.536</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -2894,97 +2894,97 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>6.9950000000000001</v>
+        <v>6814</v>
       </c>
       <c r="C25" s="1">
-        <v>5.9</v>
+        <v>6218</v>
       </c>
       <c r="D25" s="1">
-        <v>6.71</v>
+        <v>6647</v>
       </c>
       <c r="E25" s="1">
-        <v>3.8540000000000001</v>
+        <v>3812</v>
       </c>
       <c r="F25" s="1">
-        <v>2.9809999999999999</v>
+        <v>2745</v>
       </c>
       <c r="G25" s="1">
-        <v>3.4609999999999999</v>
+        <v>3024</v>
       </c>
       <c r="H25" s="1">
-        <v>3.48</v>
+        <v>3451</v>
       </c>
       <c r="I25" s="1">
-        <v>7.1639999999999997</v>
+        <v>5994</v>
       </c>
       <c r="J25" s="1">
-        <v>6.0110000000000001</v>
+        <v>5671</v>
       </c>
       <c r="K25" s="1">
-        <v>4.82</v>
+        <v>4355</v>
       </c>
       <c r="L25" s="1">
-        <v>3.1080000000000001</v>
+        <v>4245</v>
       </c>
       <c r="M25" s="1">
-        <v>6.67</v>
+        <v>6548</v>
       </c>
       <c r="N25" s="1">
-        <v>9.5359999999999996</v>
+        <v>9223</v>
       </c>
       <c r="O25" s="1">
-        <v>9.5079999999999991</v>
+        <v>9018</v>
       </c>
       <c r="P25" s="1">
-        <v>5.7370000000000001</v>
+        <v>5760</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.9239999999999995</v>
+        <v>9957</v>
       </c>
       <c r="R25" s="1">
-        <v>4.9950000000000001</v>
+        <v>4700</v>
       </c>
       <c r="S25" s="1">
-        <v>5.032</v>
+        <v>5108</v>
       </c>
       <c r="T25" s="1">
-        <v>2.6859999999999999</v>
+        <v>2682</v>
       </c>
       <c r="U25" s="1">
-        <v>1.621</v>
+        <v>1777</v>
       </c>
       <c r="V25" s="1">
-        <v>1.3029999999999999</v>
+        <v>1628</v>
       </c>
       <c r="W25" s="1">
-        <v>1.966</v>
+        <v>810</v>
       </c>
       <c r="X25" s="1">
-        <v>2.2000000000000002</v>
+        <v>2135</v>
       </c>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>3.1970000000000001</v>
+        <v>2434</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.2629999999999999</v>
+        <v>4329</v>
       </c>
       <c r="AB25" s="1">
-        <v>3.2549999999999999</v>
+        <v>3442</v>
       </c>
       <c r="AC25" s="1">
-        <v>3.9180000000000001</v>
+        <v>4710</v>
       </c>
       <c r="AD25" s="1">
-        <v>3.3250000000000002</v>
+        <v>3424</v>
       </c>
       <c r="AE25" s="1">
-        <v>3.6579999999999999</v>
+        <v>3067</v>
       </c>
       <c r="AF25" s="1">
-        <v>2.629</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -2992,97 +2992,97 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>5.0110000000000001</v>
+        <v>4498</v>
       </c>
       <c r="C26" s="1">
-        <v>3.988</v>
+        <v>3858</v>
       </c>
       <c r="D26" s="1">
-        <v>4.726</v>
+        <v>4331</v>
       </c>
       <c r="E26" s="1">
-        <v>1.9419999999999999</v>
+        <v>1378</v>
       </c>
       <c r="F26" s="1">
-        <v>1.1990000000000001</v>
+        <v>620</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0820000000000001</v>
+        <v>590</v>
       </c>
       <c r="H26" s="1">
-        <v>1.4039999999999999</v>
+        <v>1017</v>
       </c>
       <c r="I26" s="1">
-        <v>5.39</v>
+        <v>3704</v>
       </c>
       <c r="J26" s="1">
-        <v>4.2370000000000001</v>
+        <v>4269</v>
       </c>
       <c r="K26" s="1">
-        <v>3.0459999999999998</v>
+        <v>3004</v>
       </c>
       <c r="L26" s="1">
-        <v>2.6920000000000002</v>
+        <v>2701</v>
       </c>
       <c r="M26" s="1">
-        <v>4.8959999999999999</v>
+        <v>4479</v>
       </c>
       <c r="N26" s="1">
-        <v>7.7619999999999996</v>
+        <v>8469</v>
       </c>
       <c r="O26" s="1">
-        <v>7.734</v>
+        <v>8264</v>
       </c>
       <c r="P26" s="1">
-        <v>3.9630000000000001</v>
+        <v>3959</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.15</v>
+        <v>7523</v>
       </c>
       <c r="R26" s="1">
-        <v>3.2210000000000001</v>
+        <v>3363</v>
       </c>
       <c r="S26" s="1">
-        <v>3.2589999999999999</v>
+        <v>4051</v>
       </c>
       <c r="T26" s="1">
-        <v>0.32100000000000001</v>
+        <v>469</v>
       </c>
       <c r="U26" s="1">
-        <v>3.8730000000000002</v>
+        <v>5242</v>
       </c>
       <c r="V26" s="1">
-        <v>3.157</v>
+        <v>4103</v>
       </c>
       <c r="W26" s="1">
-        <v>3.484</v>
+        <v>3257</v>
       </c>
       <c r="X26" s="1">
-        <v>1.623</v>
+        <v>1721</v>
       </c>
       <c r="Y26" s="1">
-        <v>2.4329999999999998</v>
+        <v>3196</v>
       </c>
       <c r="Z26" s="1">
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.7910000000000004</v>
+        <v>6934</v>
       </c>
       <c r="AB26" s="1">
-        <v>4.7830000000000004</v>
+        <v>6709</v>
       </c>
       <c r="AC26" s="1">
-        <v>4.1669999999999998</v>
+        <v>5270</v>
       </c>
       <c r="AD26" s="1">
-        <v>3.5539999999999998</v>
+        <v>3998</v>
       </c>
       <c r="AE26" s="1">
-        <v>5.3470000000000004</v>
+        <v>4049</v>
       </c>
       <c r="AF26" s="1">
-        <v>2.8780000000000001</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3090,97 +3090,97 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9.6129999999999995</v>
+        <v>9707</v>
       </c>
       <c r="C27" s="1">
-        <v>9.4610000000000003</v>
+        <v>9377</v>
       </c>
       <c r="D27" s="1">
-        <v>9.3290000000000006</v>
+        <v>9540</v>
       </c>
       <c r="E27" s="1">
-        <v>7.06</v>
+        <v>8052</v>
       </c>
       <c r="F27" s="1">
-        <v>6.0209999999999999</v>
+        <v>7526</v>
       </c>
       <c r="G27" s="1">
-        <v>7.0970000000000004</v>
+        <v>6381</v>
       </c>
       <c r="H27" s="1">
-        <v>7.42</v>
+        <v>8412</v>
       </c>
       <c r="I27" s="1">
-        <v>9.298</v>
+        <v>8506</v>
       </c>
       <c r="J27" s="1">
-        <v>11.539</v>
+        <v>8497</v>
       </c>
       <c r="K27" s="1">
-        <v>7.5940000000000003</v>
+        <v>7512</v>
       </c>
       <c r="L27" s="1">
-        <v>5.55</v>
+        <v>7063</v>
       </c>
       <c r="M27" s="1">
-        <v>11.518000000000001</v>
+        <v>9602</v>
       </c>
       <c r="N27" s="1">
-        <v>8.4740000000000002</v>
+        <v>7356</v>
       </c>
       <c r="O27" s="1">
-        <v>8.6869999999999994</v>
+        <v>8056</v>
       </c>
       <c r="P27" s="1">
-        <v>11.305</v>
+        <v>8586</v>
       </c>
       <c r="Q27" s="1">
-        <v>8.6609999999999996</v>
+        <v>7608</v>
       </c>
       <c r="R27" s="1">
-        <v>7.6760000000000002</v>
+        <v>7589</v>
       </c>
       <c r="S27" s="1">
-        <v>7.8140000000000001</v>
+        <v>7997</v>
       </c>
       <c r="T27" s="1">
-        <v>6.5209999999999999</v>
+        <v>7102</v>
       </c>
       <c r="U27" s="1">
-        <v>4.7510000000000003</v>
+        <v>4645</v>
       </c>
       <c r="V27" s="1">
-        <v>3.0110000000000001</v>
+        <v>2946</v>
       </c>
       <c r="W27" s="1">
-        <v>4.7690000000000001</v>
+        <v>4631</v>
       </c>
       <c r="X27" s="1">
-        <v>4.6420000000000003</v>
+        <v>4771</v>
       </c>
       <c r="Y27" s="1">
-        <v>4.3280000000000003</v>
+        <v>4261</v>
       </c>
       <c r="Z27" s="1">
-        <v>6.9340000000000002</v>
+        <v>5791</v>
       </c>
       <c r="AA27" s="1">
         <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0.88500000000000001</v>
+        <v>1007</v>
       </c>
       <c r="AC27" s="1">
-        <v>3.1360000000000001</v>
+        <v>2739</v>
       </c>
       <c r="AD27" s="1">
-        <v>2.7989999999999999</v>
+        <v>2690</v>
       </c>
       <c r="AE27" s="1">
-        <v>2.7890000000000001</v>
+        <v>2671</v>
       </c>
       <c r="AF27" s="1">
-        <v>3.0179999999999998</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3188,97 +3188,97 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>9.3889999999999993</v>
+        <v>9361</v>
       </c>
       <c r="C28" s="1">
-        <v>9.2370000000000001</v>
+        <v>9032</v>
       </c>
       <c r="D28" s="1">
-        <v>9.1050000000000004</v>
+        <v>9195</v>
       </c>
       <c r="E28" s="1">
-        <v>6.8360000000000003</v>
+        <v>6162</v>
       </c>
       <c r="F28" s="1">
-        <v>5.1360000000000001</v>
+        <v>5095</v>
       </c>
       <c r="G28" s="1">
-        <v>6.8730000000000002</v>
+        <v>5374</v>
       </c>
       <c r="H28" s="1">
-        <v>7.1950000000000003</v>
+        <v>5801</v>
       </c>
       <c r="I28" s="1">
-        <v>9.4960000000000004</v>
+        <v>8339</v>
       </c>
       <c r="J28" s="1">
-        <v>8.343</v>
+        <v>7411</v>
       </c>
       <c r="K28" s="1">
-        <v>6.476</v>
+        <v>6331</v>
       </c>
       <c r="L28" s="1">
-        <v>5.4359999999999999</v>
+        <v>6717</v>
       </c>
       <c r="M28" s="1">
-        <v>9.0020000000000007</v>
+        <v>14676</v>
       </c>
       <c r="N28" s="1">
-        <v>9.01</v>
+        <v>9907</v>
       </c>
       <c r="O28" s="1">
-        <v>9.2240000000000002</v>
+        <v>9702</v>
       </c>
       <c r="P28" s="1">
-        <v>8.0690000000000008</v>
+        <v>8104</v>
       </c>
       <c r="Q28" s="1">
-        <v>9.1969999999999992</v>
+        <v>9254</v>
       </c>
       <c r="R28" s="1">
-        <v>7.452</v>
+        <v>7244</v>
       </c>
       <c r="S28" s="1">
-        <v>7.59</v>
+        <v>7651</v>
       </c>
       <c r="T28" s="1">
-        <v>5.0179999999999998</v>
+        <v>5031</v>
       </c>
       <c r="U28" s="1">
-        <v>3.8660000000000001</v>
+        <v>3832</v>
       </c>
       <c r="V28" s="1">
-        <v>2.1259999999999999</v>
+        <v>1939</v>
       </c>
       <c r="W28" s="1">
-        <v>3.8839999999999999</v>
+        <v>3624</v>
       </c>
       <c r="X28" s="1">
-        <v>4.5279999999999996</v>
+        <v>4412</v>
       </c>
       <c r="Y28" s="1">
-        <v>3.4430000000000001</v>
+        <v>3254</v>
       </c>
       <c r="Z28" s="1">
-        <v>6.71</v>
+        <v>4784</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.008</v>
+        <v>886</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>2.9350000000000001</v>
+        <v>2394</v>
       </c>
       <c r="AD28" s="1">
-        <v>2.5489999999999999</v>
+        <v>2331</v>
       </c>
       <c r="AE28" s="1">
-        <v>2.5649999999999999</v>
+        <v>2312</v>
       </c>
       <c r="AF28" s="1">
-        <v>2.133</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3286,97 +3286,97 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>7.9480000000000004</v>
+        <v>7196</v>
       </c>
       <c r="C29" s="1">
-        <v>7.7960000000000003</v>
+        <v>6866</v>
       </c>
       <c r="D29" s="1">
-        <v>7.6639999999999997</v>
+        <v>7029</v>
       </c>
       <c r="E29" s="1">
-        <v>5.3949999999999996</v>
+        <v>5541</v>
       </c>
       <c r="F29" s="1">
-        <v>5.6769999999999996</v>
+        <v>5016</v>
       </c>
       <c r="G29" s="1">
-        <v>5.4320000000000004</v>
+        <v>5300</v>
       </c>
       <c r="H29" s="1">
-        <v>5.7539999999999996</v>
+        <v>5901</v>
       </c>
       <c r="I29" s="1">
-        <v>7.8819999999999997</v>
+        <v>5995</v>
       </c>
       <c r="J29" s="1">
-        <v>6.6130000000000004</v>
+        <v>4777</v>
       </c>
       <c r="K29" s="1">
-        <v>4.5170000000000003</v>
+        <v>3697</v>
       </c>
       <c r="L29" s="1">
-        <v>3.5680000000000001</v>
+        <v>4552</v>
       </c>
       <c r="M29" s="1">
-        <v>7.282</v>
+        <v>7091</v>
       </c>
       <c r="N29" s="1">
-        <v>6.6239999999999997</v>
+        <v>7342</v>
       </c>
       <c r="O29" s="1">
-        <v>6.8369999999999997</v>
+        <v>7137</v>
       </c>
       <c r="P29" s="1">
-        <v>7.5359999999999996</v>
+        <v>6075</v>
       </c>
       <c r="Q29" s="1">
-        <v>6.8109999999999999</v>
+        <v>6689</v>
       </c>
       <c r="R29" s="1">
-        <v>6.0110000000000001</v>
+        <v>5078</v>
       </c>
       <c r="S29" s="1">
-        <v>6.149</v>
+        <v>5486</v>
       </c>
       <c r="T29" s="1">
-        <v>4.8559999999999999</v>
+        <v>4591</v>
       </c>
       <c r="U29" s="1">
-        <v>4.6130000000000004</v>
+        <v>4685</v>
       </c>
       <c r="V29" s="1">
-        <v>2.8730000000000002</v>
+        <v>2721</v>
       </c>
       <c r="W29" s="1">
-        <v>4.6310000000000002</v>
+        <v>4406</v>
       </c>
       <c r="X29" s="1">
-        <v>3.5670000000000002</v>
+        <v>3028</v>
       </c>
       <c r="Y29" s="1">
-        <v>4.7080000000000002</v>
+        <v>3915</v>
       </c>
       <c r="Z29" s="1">
-        <v>5.2690000000000001</v>
+        <v>4166</v>
       </c>
       <c r="AA29" s="1">
-        <v>2.7389999999999999</v>
+        <v>3135</v>
       </c>
       <c r="AB29" s="1">
-        <v>2.3919999999999999</v>
+        <v>2933</v>
       </c>
       <c r="AC29" s="1">
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>2.9449999999999998</v>
+        <v>1441</v>
       </c>
       <c r="AE29" s="1">
-        <v>1.139</v>
+        <v>1606</v>
       </c>
       <c r="AF29" s="1">
-        <v>3.0710000000000002</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -3384,97 +3384,97 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>7.9390000000000001</v>
+        <v>8509</v>
       </c>
       <c r="C30" s="1">
-        <v>7.7859999999999996</v>
+        <v>8180</v>
       </c>
       <c r="D30" s="1">
-        <v>7.6539999999999999</v>
+        <v>8343</v>
       </c>
       <c r="E30" s="1">
-        <v>4.2619999999999996</v>
+        <v>4336</v>
       </c>
       <c r="F30" s="1">
-        <v>4.4039999999999999</v>
+        <v>4134</v>
       </c>
       <c r="G30" s="1">
-        <v>4.2530000000000001</v>
+        <v>4419</v>
       </c>
       <c r="H30" s="1">
-        <v>4.585</v>
+        <v>4845</v>
       </c>
       <c r="I30" s="1">
-        <v>7.6529999999999996</v>
+        <v>6337</v>
       </c>
       <c r="J30" s="1">
-        <v>5.4489999999999998</v>
+        <v>5428</v>
       </c>
       <c r="K30" s="1">
-        <v>4.556</v>
+        <v>4348</v>
       </c>
       <c r="L30" s="1">
-        <v>3.4830000000000001</v>
+        <v>4588</v>
       </c>
       <c r="M30" s="1">
-        <v>7.1589999999999998</v>
+        <v>6891</v>
       </c>
       <c r="N30" s="1">
-        <v>6.7859999999999996</v>
+        <v>7836</v>
       </c>
       <c r="O30" s="1">
-        <v>6.9989999999999997</v>
+        <v>7631</v>
       </c>
       <c r="P30" s="1">
-        <v>6.226</v>
+        <v>6103</v>
       </c>
       <c r="Q30" s="1">
-        <v>6.9720000000000004</v>
+        <v>7183</v>
       </c>
       <c r="R30" s="1">
-        <v>6.0010000000000003</v>
+        <v>5147</v>
       </c>
       <c r="S30" s="1">
-        <v>5.5209999999999999</v>
+        <v>5555</v>
       </c>
       <c r="T30" s="1">
-        <v>3.484</v>
+        <v>3761</v>
       </c>
       <c r="U30" s="1">
-        <v>3.9529999999999998</v>
+        <v>3537</v>
       </c>
       <c r="V30" s="1">
-        <v>2.2130000000000001</v>
+        <v>1573</v>
       </c>
       <c r="W30" s="1">
-        <v>3.9710000000000001</v>
+        <v>3258</v>
       </c>
       <c r="X30" s="1">
-        <v>2.6080000000000001</v>
+        <v>2401</v>
       </c>
       <c r="Y30" s="1">
-        <v>3.42</v>
+        <v>2888</v>
       </c>
       <c r="Z30" s="1">
-        <v>3.9950000000000001</v>
+        <v>3673</v>
       </c>
       <c r="AA30" s="1">
-        <v>2.6909999999999998</v>
+        <v>2805</v>
       </c>
       <c r="AB30" s="1">
-        <v>2.331</v>
+        <v>2552</v>
       </c>
       <c r="AC30" s="1">
-        <v>1.4390000000000001</v>
+        <v>2946</v>
       </c>
       <c r="AD30" s="1">
         <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>0.67600000000000005</v>
+        <v>825</v>
       </c>
       <c r="AF30" s="1">
-        <v>1.754</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3482,97 +3482,97 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>7.508</v>
+        <v>7823</v>
       </c>
       <c r="C31" s="1">
-        <v>7.3550000000000004</v>
+        <v>7494</v>
       </c>
       <c r="D31" s="1">
-        <v>7.2229999999999999</v>
+        <v>7656</v>
       </c>
       <c r="E31" s="1">
-        <v>4.3159999999999998</v>
+        <v>6168</v>
       </c>
       <c r="F31" s="1">
-        <v>4.6749999999999998</v>
+        <v>5643</v>
       </c>
       <c r="G31" s="1">
-        <v>4.3070000000000004</v>
+        <v>5928</v>
       </c>
       <c r="H31" s="1">
-        <v>4.6399999999999997</v>
+        <v>6528</v>
       </c>
       <c r="I31" s="1">
-        <v>7.7069999999999999</v>
+        <v>6623</v>
       </c>
       <c r="J31" s="1">
-        <v>5.5030000000000001</v>
+        <v>5718</v>
       </c>
       <c r="K31" s="1">
-        <v>4.6109999999999998</v>
+        <v>5629</v>
       </c>
       <c r="L31" s="1">
-        <v>3.5710000000000002</v>
+        <v>5179</v>
       </c>
       <c r="M31" s="1">
-        <v>7.2130000000000001</v>
+        <v>7491</v>
       </c>
       <c r="N31" s="1">
-        <v>6.9539999999999997</v>
+        <v>7012</v>
       </c>
       <c r="O31" s="1">
-        <v>7.1669999999999998</v>
+        <v>6806</v>
       </c>
       <c r="P31" s="1">
-        <v>6.28</v>
+        <v>6702</v>
       </c>
       <c r="Q31" s="1">
-        <v>7.141</v>
+        <v>6358</v>
       </c>
       <c r="R31" s="1">
-        <v>5.57</v>
+        <v>5706</v>
       </c>
       <c r="S31" s="1">
-        <v>5.5750000000000002</v>
+        <v>6113</v>
       </c>
       <c r="T31" s="1">
-        <v>3.5390000000000001</v>
+        <v>5218</v>
       </c>
       <c r="U31" s="1">
-        <v>3.4740000000000002</v>
+        <v>4305</v>
       </c>
       <c r="V31" s="1">
-        <v>1.7350000000000001</v>
+        <v>2342</v>
       </c>
       <c r="W31" s="1">
-        <v>3.492</v>
+        <v>4027</v>
       </c>
       <c r="X31" s="1">
-        <v>2.6619999999999999</v>
+        <v>2756</v>
       </c>
       <c r="Y31" s="1">
-        <v>3.0670000000000002</v>
+        <v>3657</v>
       </c>
       <c r="Z31" s="1">
-        <v>4.0490000000000004</v>
+        <v>5347</v>
       </c>
       <c r="AA31" s="1">
-        <v>2.6720000000000002</v>
+        <v>2790</v>
       </c>
       <c r="AB31" s="1">
-        <v>2.3119999999999998</v>
+        <v>2564</v>
       </c>
       <c r="AC31" s="1">
-        <v>1.607</v>
+        <v>1140</v>
       </c>
       <c r="AD31" s="1">
-        <v>0.82</v>
+        <v>675</v>
       </c>
       <c r="AE31" s="1">
         <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>1.5309999999999999</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3580,94 +3580,94 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>7.5449999999999999</v>
+        <v>8608</v>
       </c>
       <c r="C32" s="1">
-        <v>7.3929999999999998</v>
+        <v>8279</v>
       </c>
       <c r="D32" s="1">
-        <v>7.2610000000000001</v>
+        <v>8441</v>
       </c>
       <c r="E32" s="1">
-        <v>4.3479999999999999</v>
+        <v>4229</v>
       </c>
       <c r="F32" s="1">
-        <v>3.258</v>
+        <v>3162</v>
       </c>
       <c r="G32" s="1">
-        <v>3.9580000000000002</v>
+        <v>3441</v>
       </c>
       <c r="H32" s="1">
-        <v>3.9750000000000001</v>
+        <v>3868</v>
       </c>
       <c r="I32" s="1">
-        <v>7.66</v>
+        <v>6406</v>
       </c>
       <c r="J32" s="1">
-        <v>6.5069999999999997</v>
+        <v>5478</v>
       </c>
       <c r="K32" s="1">
-        <v>4.6420000000000003</v>
+        <v>4398</v>
       </c>
       <c r="L32" s="1">
-        <v>3.6019999999999999</v>
+        <v>4657</v>
       </c>
       <c r="M32" s="1">
-        <v>7.1660000000000004</v>
+        <v>6960</v>
       </c>
       <c r="N32" s="1">
-        <v>7.97</v>
+        <v>7833</v>
       </c>
       <c r="O32" s="1">
-        <v>8.1829999999999998</v>
+        <v>7628</v>
       </c>
       <c r="P32" s="1">
-        <v>6.2329999999999997</v>
+        <v>6171</v>
       </c>
       <c r="Q32" s="1">
-        <v>8.1560000000000006</v>
+        <v>8287</v>
       </c>
       <c r="R32" s="1">
-        <v>5.49</v>
+        <v>5117</v>
       </c>
       <c r="S32" s="1">
-        <v>5.5279999999999996</v>
+        <v>5524</v>
       </c>
       <c r="T32" s="1">
-        <v>3.1819999999999999</v>
+        <v>3098</v>
       </c>
       <c r="U32" s="1">
-        <v>2.246</v>
+        <v>2758</v>
       </c>
       <c r="V32" s="1">
-        <v>0.77700000000000002</v>
+        <v>551</v>
       </c>
       <c r="W32" s="1">
-        <v>2.5459999999999998</v>
+        <v>2480</v>
       </c>
       <c r="X32" s="1">
-        <v>2.694</v>
+        <v>2509</v>
       </c>
       <c r="Y32" s="1">
-        <v>1.65</v>
+        <v>2600</v>
       </c>
       <c r="Z32" s="1">
-        <v>3.6509999999999998</v>
+        <v>2851</v>
       </c>
       <c r="AA32" s="1">
-        <v>3.117</v>
+        <v>3252</v>
       </c>
       <c r="AB32" s="1">
-        <v>2.109</v>
+        <v>2366</v>
       </c>
       <c r="AC32" s="1">
-        <v>2.6230000000000002</v>
+        <v>3045</v>
       </c>
       <c r="AD32" s="1">
-        <v>1.472</v>
+        <v>1730</v>
       </c>
       <c r="AE32" s="1">
-        <v>2.242</v>
+        <v>1781</v>
       </c>
       <c r="AF32" s="1">
         <v>0</v>
